--- a/vanlaar_vitae_data.xlsx
+++ b/vanlaar_vitae_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/triciavanlaar/Desktop/CSUStan/MiscWorkRelatedDocs/VanLaarCV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C145F1-FC8A-334B-97D1-456D15C14ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B101333-9872-EB43-92A0-6979041DF153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48900" yWindow="3340" windowWidth="26180" windowHeight="16260" activeTab="1" xr2:uid="{F213A91E-98B5-B244-B12A-A608C8962BCD}"/>
+    <workbookView xWindow="10500" yWindow="3340" windowWidth="26180" windowHeight="16260" activeTab="1" xr2:uid="{F213A91E-98B5-B244-B12A-A608C8962BCD}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="10" r:id="rId1"/>

--- a/vanlaar_vitae_data.xlsx
+++ b/vanlaar_vitae_data.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/triciavanlaar/Desktop/CSUStan/MiscWorkRelatedDocs/VanLaarCV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B101333-9872-EB43-92A0-6979041DF153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77D46A0-1BD2-5C4E-9D15-44D500EC7BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="3340" windowWidth="26180" windowHeight="16260" activeTab="1" xr2:uid="{F213A91E-98B5-B244-B12A-A608C8962BCD}"/>
+    <workbookView xWindow="8380" yWindow="3340" windowWidth="26180" windowHeight="16260" activeTab="1" xr2:uid="{F213A91E-98B5-B244-B12A-A608C8962BCD}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="10" r:id="rId1"/>
     <sheet name="professional" sheetId="5" r:id="rId2"/>
-    <sheet name="industry" sheetId="6" r:id="rId3"/>
-    <sheet name="leadership" sheetId="7" r:id="rId4"/>
-    <sheet name="skills" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,62 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>institution</t>
   </si>
   <si>
-    <t>skill</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Javascript (d3.js)</t>
-  </si>
-  <si>
-    <t>C++</t>
-  </si>
-  <si>
-    <t>Python</t>
-  </si>
-  <si>
-    <t>Bash</t>
-  </si>
-  <si>
-    <t>SQL</t>
-  </si>
-  <si>
-    <t>AWK</t>
-  </si>
-  <si>
-    <t>Position title</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Institution</t>
-  </si>
-  <si>
-    <t>Description 1 bullet point goes here</t>
-  </si>
-  <si>
-    <t>Washington DC</t>
-  </si>
-  <si>
-    <t>I appeared on the same segment as the news on Ariana Grande's and DJ Chello's breakup</t>
-  </si>
-  <si>
-    <t>Invited for a TV interview on the popular TV show "The Daily Rip" hosted by Jack and Brie</t>
-  </si>
-  <si>
-    <t>TV Interview on "The Daily Rip" about my comet discovery</t>
-  </si>
-  <si>
     <t>degree</t>
   </si>
   <si>
@@ -108,28 +54,7 @@
     <t>role</t>
   </si>
   <si>
-    <t>start_date</t>
-  </si>
-  <si>
-    <t>end_date</t>
-  </si>
-  <si>
     <t>dates</t>
-  </si>
-  <si>
-    <t>2010--2012</t>
-  </si>
-  <si>
-    <t>Note that you can add a Description 2 bullet point by having the same information for all other fields</t>
-  </si>
-  <si>
-    <t>Note that you can add a Description 3 bullet point by having the same information for all other fields</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>language</t>
   </si>
   <si>
     <t>Ph.D. Cell and Molecular Biology</t>
@@ -709,138 +634,138 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>2012</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>2012</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>2007</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>2007</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>2005</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>2005</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>2005</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -861,418 +786,128 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C980247-8D3C-E442-A656-D4E45E07EA31}">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2010</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2012</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2012</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2010</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2012</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C1DA58-DF2A-1948-9210-AF2DD0CDBCFC}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F2">
-        <v>2022</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F3">
-        <v>2022</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F75B33B-21C6-D44F-A780-FE0F5972B759}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/vanlaar_vitae_data.xlsx
+++ b/vanlaar_vitae_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/triciavanlaar/Desktop/CSUStan/MiscWorkRelatedDocs/VanLaarCV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77D46A0-1BD2-5C4E-9D15-44D500EC7BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B7E792-5DD6-694E-AB1E-19F25C855218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8380" yWindow="3340" windowWidth="26180" windowHeight="16260" activeTab="1" xr2:uid="{F213A91E-98B5-B244-B12A-A608C8962BCD}"/>
+    <workbookView xWindow="8380" yWindow="3340" windowWidth="26180" windowHeight="16260" xr2:uid="{F213A91E-98B5-B244-B12A-A608C8962BCD}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="10" r:id="rId1"/>
@@ -63,6 +63,117 @@
     <t>The University of Texas at San Antonio</t>
   </si>
   <si>
+    <t>Major Advisor: J. Seshu, Ph.D.</t>
+  </si>
+  <si>
+    <t>MS Biology</t>
+  </si>
+  <si>
+    <t>University of the Pacific</t>
+  </si>
+  <si>
+    <t>San Antonio, TX</t>
+  </si>
+  <si>
+    <t>Stockton, CA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thesis Project: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>The behavior of Rad51D and XRCC2 in response to drug induced DNA damage and a continuing study of the fly Rad51 paralogs</t>
+    </r>
+  </si>
+  <si>
+    <t>Major Advisor: Lisa Wrischnik, Ph.D.</t>
+  </si>
+  <si>
+    <t>BS Biology</t>
+  </si>
+  <si>
+    <t>California State University, Stanislaus</t>
+  </si>
+  <si>
+    <t>Turlock, CA</t>
+  </si>
+  <si>
+    <t>Minor in Chemistry, Concentration in Genetics</t>
+  </si>
+  <si>
+    <t>Major Advisor: Jim Youngblom, Ph.D.</t>
+  </si>
+  <si>
+    <t>Assistant Professor of Microbial Genomics</t>
+  </si>
+  <si>
+    <t>Associate Professor of Microbiology</t>
+  </si>
+  <si>
+    <t>2022-Present</t>
+  </si>
+  <si>
+    <t>2021-2022</t>
+  </si>
+  <si>
+    <t>2015-2021</t>
+  </si>
+  <si>
+    <t>California State University, Fresno</t>
+  </si>
+  <si>
+    <t>Assistant Professor of Microbiology</t>
+  </si>
+  <si>
+    <t>Fresno, CA</t>
+  </si>
+  <si>
+    <t>Adjunct Instructor</t>
+  </si>
+  <si>
+    <t>St. Philip's College</t>
+  </si>
+  <si>
+    <t>2014-2015</t>
+  </si>
+  <si>
+    <t>NRC Post-Doctoral Research Fellow</t>
+  </si>
+  <si>
+    <t>US Army Institute for Surgical Research, Dental and Trauma Research Detachment</t>
+  </si>
+  <si>
+    <t>JBSA Fort Sam Houston, TX</t>
+  </si>
+  <si>
+    <t>2012-2015</t>
+  </si>
+  <si>
+    <t>Graduate Research and Teaching Assistant</t>
+  </si>
+  <si>
+    <t>2007-2012</t>
+  </si>
+  <si>
+    <t>2005-2007</t>
+  </si>
+  <si>
+    <t>Undergraduate Research Assistant</t>
+  </si>
+  <si>
+    <t>Endangered Species Recovery Program</t>
+  </si>
+  <si>
+    <t>2004-2005</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Dissertation Project: </t>
     </r>
@@ -89,118 +200,7 @@
     </r>
   </si>
   <si>
-    <t>Major Advisor: J. Seshu, Ph.D.</t>
-  </si>
-  <si>
-    <t>MS Biology</t>
-  </si>
-  <si>
-    <t>University of the Pacific</t>
-  </si>
-  <si>
-    <t>San Antonio, TX</t>
-  </si>
-  <si>
-    <t>Stockton, CA</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Thesis Project: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>The behavior of Rad51D and XRCC2 in response to drug induced DNA damage and a continuing study of the fly Rad51 paralogs</t>
-    </r>
-  </si>
-  <si>
-    <t>Major Advisor: Lisa Wrischnik, Ph.D.</t>
-  </si>
-  <si>
-    <t>BS Biology</t>
-  </si>
-  <si>
-    <t>California State University, Stanislaus</t>
-  </si>
-  <si>
-    <t>Turlock, CA</t>
-  </si>
-  <si>
-    <t>Minor in Chemistry, Concentration in Genetics</t>
-  </si>
-  <si>
     <t>Research Project: Speciation of Sylvilagus bachmani riparius</t>
-  </si>
-  <si>
-    <t>Major Advisor: Jim Youngblom, Ph.D.</t>
-  </si>
-  <si>
-    <t>Assistant Professor of Microbial Genomics</t>
-  </si>
-  <si>
-    <t>Associate Professor of Microbiology</t>
-  </si>
-  <si>
-    <t>2022-Present</t>
-  </si>
-  <si>
-    <t>2021-2022</t>
-  </si>
-  <si>
-    <t>2015-2021</t>
-  </si>
-  <si>
-    <t>California State University, Fresno</t>
-  </si>
-  <si>
-    <t>Assistant Professor of Microbiology</t>
-  </si>
-  <si>
-    <t>Fresno, CA</t>
-  </si>
-  <si>
-    <t>Adjunct Instructor</t>
-  </si>
-  <si>
-    <t>St. Philip's College</t>
-  </si>
-  <si>
-    <t>2014-2015</t>
-  </si>
-  <si>
-    <t>NRC Post-Doctoral Research Fellow</t>
-  </si>
-  <si>
-    <t>US Army Institute for Surgical Research, Dental and Trauma Research Detachment</t>
-  </si>
-  <si>
-    <t>JBSA Fort Sam Houston, TX</t>
-  </si>
-  <si>
-    <t>2012-2015</t>
-  </si>
-  <si>
-    <t>Graduate Research and Teaching Assistant</t>
-  </si>
-  <si>
-    <t>2007-2012</t>
-  </si>
-  <si>
-    <t>2005-2007</t>
-  </si>
-  <si>
-    <t>Undergraduate Research Assistant</t>
-  </si>
-  <si>
-    <t>Endangered Species Recovery Program</t>
-  </si>
-  <si>
-    <t>2004-2005</t>
   </si>
 </sst>
 </file>
@@ -619,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4AE3D1-7C9F-C24D-A42B-F2C4925E72DD}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -660,10 +660,10 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -677,95 +677,95 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>2007</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>2007</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>2005</v>
       </c>
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>2005</v>
       </c>
       <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>2005</v>
       </c>
       <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -778,7 +778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D85D00E-93F1-5A40-A255-93EE8D9FEFDC}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -800,114 +800,114 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/vanlaar_vitae_data.xlsx
+++ b/vanlaar_vitae_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/triciavanlaar/Desktop/CSUStan/MiscWorkRelatedDocs/VanLaarCV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B7E792-5DD6-694E-AB1E-19F25C855218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCE7687-F5EE-E44D-A0A6-9FD65C0C0D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8380" yWindow="3340" windowWidth="26180" windowHeight="16260" xr2:uid="{F213A91E-98B5-B244-B12A-A608C8962BCD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>institution</t>
   </si>
@@ -201,6 +201,18 @@
   </si>
   <si>
     <t>Research Project: Speciation of Sylvilagus bachmani riparius</t>
+  </si>
+  <si>
+    <t>MBA</t>
+  </si>
+  <si>
+    <t>2024 - expected</t>
+  </si>
+  <si>
+    <t>Frenso, CA</t>
+  </si>
+  <si>
+    <t>Emphasis in human resource management</t>
   </si>
 </sst>
 </file>
@@ -288,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -303,6 +315,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4AE3D1-7C9F-C24D-A42B-F2C4925E72DD}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -649,21 +662,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>2012</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>42</v>
+    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -680,24 +693,24 @@
         <v>12</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>2012</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>2007</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -713,25 +726,25 @@
       <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>2007</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>2005</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -748,7 +761,7 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -765,6 +778,23 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>2005</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
         <v>20</v>
       </c>
     </row>

--- a/vanlaar_vitae_data.xlsx
+++ b/vanlaar_vitae_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/triciavanlaar/Desktop/CSUStan/MiscWorkRelatedDocs/VanLaarCV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCE7687-F5EE-E44D-A0A6-9FD65C0C0D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DA0F3A-4E20-1145-AB15-F46C6D55410B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8380" yWindow="3340" windowWidth="26180" windowHeight="16260" xr2:uid="{F213A91E-98B5-B244-B12A-A608C8962BCD}"/>
+    <workbookView xWindow="8380" yWindow="3340" windowWidth="26180" windowHeight="16260" activeTab="1" xr2:uid="{F213A91E-98B5-B244-B12A-A608C8962BCD}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="10" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>institution</t>
   </si>
@@ -114,22 +114,10 @@
     <t>Assistant Professor of Microbial Genomics</t>
   </si>
   <si>
-    <t>Associate Professor of Microbiology</t>
-  </si>
-  <si>
     <t>2022-Present</t>
   </si>
   <si>
-    <t>2021-2022</t>
-  </si>
-  <si>
-    <t>2015-2021</t>
-  </si>
-  <si>
     <t>California State University, Fresno</t>
-  </si>
-  <si>
-    <t>Assistant Professor of Microbiology</t>
   </si>
   <si>
     <t>Fresno, CA</t>
@@ -213,6 +201,12 @@
   </si>
   <si>
     <t>Emphasis in human resource management</t>
+  </si>
+  <si>
+    <t>Assistant and Associate Professor of Microbiology</t>
+  </si>
+  <si>
+    <t>2015-2022</t>
   </si>
 </sst>
 </file>
@@ -300,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -315,7 +309,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,7 +625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4AE3D1-7C9F-C24D-A42B-F2C4925E72DD}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -662,21 +655,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>47</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -693,7 +686,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -778,7 +771,7 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -806,10 +799,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D85D00E-93F1-5A40-A255-93EE8D9FEFDC}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -839,46 +832,46 @@
         <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>31</v>
@@ -889,55 +882,41 @@
         <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/vanlaar_vitae_data.xlsx
+++ b/vanlaar_vitae_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/triciavanlaar/Desktop/CSUStan/MiscWorkRelatedDocs/VanLaarCV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DA0F3A-4E20-1145-AB15-F46C6D55410B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E60621F-DB3F-FA40-BA07-C3D9318837FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8380" yWindow="3340" windowWidth="26180" windowHeight="16260" activeTab="1" xr2:uid="{F213A91E-98B5-B244-B12A-A608C8962BCD}"/>
+    <workbookView xWindow="8380" yWindow="3340" windowWidth="26180" windowHeight="16260" xr2:uid="{F213A91E-98B5-B244-B12A-A608C8962BCD}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="10" r:id="rId1"/>
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4AE3D1-7C9F-C24D-A42B-F2C4925E72DD}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -801,7 +801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D85D00E-93F1-5A40-A255-93EE8D9FEFDC}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
